--- a/m6A papers/Performance_0703.xlsx
+++ b/m6A papers/Performance_0703.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9eeed2329470d94e/桌面/paper_implement/m6A papers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\paper_implement\m6A papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{2D7FD12A-8D26-4E5E-960C-131CAFDE3329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D38B896-47B9-46AD-A425-DE0746292617}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="712" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="paper" sheetId="1" r:id="rId1"/>
     <sheet name="6mA-mouse-Feng dataset " sheetId="37" r:id="rId2"/>
     <sheet name="6mA-rice-Chen dataset" sheetId="38" r:id="rId3"/>
-    <sheet name="crossspecies dataset" sheetId="39" r:id="rId4"/>
+    <sheet name="cross species dataset" sheetId="39" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="412">
   <si>
     <t>Title</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1667,14 +1666,26 @@
     <t>just for testing</t>
   </si>
   <si>
-    <t>Crosspecies dataset</t>
+    <t>Cross pecies dataset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>csDMA: an improved bioinformatics tool for identifying DNA 6 mA modifications via Chou’s 5-step rule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cross species</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P24</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2203,13 +2214,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2221,29 +2301,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2251,6 +2328,48 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2259,114 +2378,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2406,7 +2417,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A615491-4145-47C6-A81F-F2AE098F420B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A615491-4145-47C6-A81F-F2AE098F420B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2450,7 +2461,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7662164-AFC1-4E67-A6FF-1F97A65E359B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7662164-AFC1-4E67-A6FF-1F97A65E359B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2494,7 +2505,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F828A64-A17F-56FA-DD46-35967969BE4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F828A64-A17F-56FA-DD46-35967969BE4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2538,7 +2549,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81FD0D23-5CCC-4A1F-9458-A7921E384EBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81FD0D23-5CCC-4A1F-9458-A7921E384EBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2599,7 +2610,7 @@
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA87E252-4E31-40AE-98B2-5F75B000AAA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA87E252-4E31-40AE-98B2-5F75B000AAA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2643,7 +2654,7 @@
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E72BF9-4A0C-4CCD-BF1C-E67FF40BA780}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45E72BF9-4A0C-4CCD-BF1C-E67FF40BA780}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2687,7 +2698,7 @@
         <xdr:cNvPr id="5" name="圖片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABD6B368-4F08-4E2B-9DE4-59921BDBBB56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABD6B368-4F08-4E2B-9DE4-59921BDBBB56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2731,7 +2742,7 @@
         <xdr:cNvPr id="6" name="圖片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C475A5E4-B0D8-4F3A-B105-AE61A620DD27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C475A5E4-B0D8-4F3A-B105-AE61A620DD27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2775,7 +2786,7 @@
         <xdr:cNvPr id="7" name="圖片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B9836DD-349B-4063-ACAB-7533C922D9B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B9836DD-349B-4063-ACAB-7533C922D9B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2792,6 +2803,55 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6819900" y="19907250"/>
+          <a:ext cx="7840169" cy="3600953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>296369</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F828A64-A17F-56FA-DD46-35967969BE4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="1885950"/>
           <a:ext cx="7840169" cy="3600953"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3127,10 +3187,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N108" sqref="N108"/>
     </sheetView>
   </sheetViews>
@@ -3229,17 +3289,17 @@
       <c r="C2" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="73">
+      <c r="E2" s="82">
         <v>43672</v>
       </c>
-      <c r="F2" s="60">
+      <c r="F2" s="68">
         <v>3.4910000000000001</v>
       </c>
       <c r="G2" s="66"/>
-      <c r="H2" s="102" t="s">
+      <c r="H2" s="81" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="66" t="s">
@@ -3263,7 +3323,7 @@
       <c r="O2" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="P2" s="83" t="s">
+      <c r="P2" s="62" t="s">
         <v>158</v>
       </c>
       <c r="Q2" s="22" t="s">
@@ -3283,26 +3343,26 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
       <c r="Q3" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="R3" s="61">
+      <c r="R3" s="70">
         <v>41</v>
       </c>
       <c r="S3" s="20">
@@ -3313,26 +3373,26 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
       <c r="Q4" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="R4" s="62"/>
+      <c r="R4" s="69"/>
       <c r="S4" s="21">
         <v>1450</v>
       </c>
@@ -3341,47 +3401,47 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="71" t="s">
         <v>189</v>
       </c>
       <c r="C5" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="73">
+      <c r="E5" s="82">
         <v>43749</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="86">
         <v>4.5990000000000002</v>
       </c>
       <c r="G5" s="66"/>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="K5" s="84" t="s">
+      <c r="K5" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="L5" s="84" t="s">
+      <c r="L5" s="106" t="s">
         <v>296</v>
       </c>
-      <c r="M5" s="72" t="s">
+      <c r="M5" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="N5" s="83" t="s">
         <v>180</v>
       </c>
-      <c r="O5" s="69" t="s">
+      <c r="O5" s="83" t="s">
         <v>180</v>
       </c>
       <c r="P5" s="66" t="s">
@@ -3390,7 +3450,7 @@
       <c r="Q5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="60">
+      <c r="R5" s="68">
         <v>41</v>
       </c>
       <c r="S5" s="37">
@@ -3401,26 +3461,26 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="67"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="63"/>
       <c r="Q6" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="R6" s="61"/>
+      <c r="R6" s="70"/>
       <c r="S6" s="39">
         <v>308000</v>
       </c>
@@ -3429,26 +3489,26 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="68"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="64"/>
       <c r="Q7" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="R7" s="62"/>
+      <c r="R7" s="69"/>
       <c r="S7" s="38">
         <v>3868</v>
       </c>
@@ -3457,56 +3517,56 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E8" s="96">
         <v>44029</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="70">
         <v>3.367</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="103" t="s">
+      <c r="G8" s="63"/>
+      <c r="H8" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="67" t="s">
+      <c r="I8" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="J8" s="67" t="s">
+      <c r="J8" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="K8" s="67" t="s">
+      <c r="K8" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="L8" s="91" t="s">
+      <c r="L8" s="109" t="s">
         <v>192</v>
       </c>
-      <c r="M8" s="67" t="s">
+      <c r="M8" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="N8" s="67" t="s">
+      <c r="N8" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="O8" s="67" t="s">
+      <c r="O8" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="P8" s="112" t="s">
+      <c r="P8" s="65" t="s">
         <v>194</v>
       </c>
       <c r="Q8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="61">
+      <c r="R8" s="70">
         <v>41</v>
       </c>
       <c r="S8" s="41">
@@ -3517,26 +3577,26 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
       <c r="Q9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="61"/>
+      <c r="R9" s="70"/>
       <c r="S9" s="41">
         <v>1450</v>
       </c>
@@ -3545,22 +3605,22 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
       <c r="Q10" s="6" t="s">
         <v>19</v>
       </c>
@@ -3575,22 +3635,22 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
       <c r="Q11" s="21" t="s">
         <v>127</v>
       </c>
@@ -3614,17 +3674,17 @@
       <c r="C12" s="66" t="s">
         <v>209</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="82">
         <v>44217</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="68">
         <v>5.7190000000000003</v>
       </c>
       <c r="G12" s="66"/>
-      <c r="H12" s="79" t="s">
+      <c r="H12" s="77" t="s">
         <v>4</v>
       </c>
       <c r="I12" s="66" t="s">
@@ -3633,7 +3693,7 @@
       <c r="J12" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="K12" s="82" t="s">
+      <c r="K12" s="67" t="s">
         <v>211</v>
       </c>
       <c r="L12" s="66" t="s">
@@ -3648,13 +3708,13 @@
       <c r="O12" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="P12" s="83" t="s">
+      <c r="P12" s="62" t="s">
         <v>213</v>
       </c>
       <c r="Q12" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="R12" s="60">
+      <c r="R12" s="68">
         <v>41</v>
       </c>
       <c r="S12" s="19">
@@ -3665,26 +3725,26 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
       <c r="Q13" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="R13" s="62"/>
+      <c r="R13" s="69"/>
       <c r="S13" s="21">
         <v>308000</v>
       </c>
@@ -3702,17 +3762,17 @@
       <c r="C14" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="D14" s="94" t="s">
+      <c r="D14" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="73">
+      <c r="E14" s="82">
         <v>44078</v>
       </c>
-      <c r="F14" s="60">
+      <c r="F14" s="68">
         <v>8.8859999999999992</v>
       </c>
       <c r="G14" s="66"/>
-      <c r="H14" s="79" t="s">
+      <c r="H14" s="77" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="66" t="s">
@@ -3721,7 +3781,7 @@
       <c r="J14" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="K14" s="82" t="s">
+      <c r="K14" s="67" t="s">
         <v>218</v>
       </c>
       <c r="L14" s="66" t="s">
@@ -3730,7 +3790,7 @@
       <c r="M14" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="N14" s="83" t="s">
+      <c r="N14" s="62" t="s">
         <v>220</v>
       </c>
       <c r="O14" s="66" t="s">
@@ -3742,7 +3802,7 @@
       <c r="Q14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="R14" s="60">
+      <c r="R14" s="68">
         <v>41</v>
       </c>
       <c r="S14" s="19">
@@ -3753,26 +3813,26 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
       <c r="Q15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="R15" s="61"/>
+      <c r="R15" s="70"/>
       <c r="S15" s="20">
         <v>10536</v>
       </c>
@@ -3781,26 +3841,26 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
       <c r="Q16" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="61"/>
+      <c r="R16" s="70"/>
       <c r="S16" s="20">
         <v>18294</v>
       </c>
@@ -3809,26 +3869,26 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
       <c r="Q17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="R17" s="61"/>
+      <c r="R17" s="70"/>
       <c r="S17" s="20">
         <v>32100</v>
       </c>
@@ -3837,26 +3897,26 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
       <c r="Q18" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="61"/>
+      <c r="R18" s="70"/>
       <c r="S18" s="20">
         <v>16532</v>
       </c>
@@ -3865,26 +3925,26 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
       <c r="Q19" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="R19" s="61"/>
+      <c r="R19" s="70"/>
       <c r="S19" s="20">
         <v>15810</v>
       </c>
@@ -3893,26 +3953,26 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
       <c r="Q20" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R20" s="61"/>
+      <c r="R20" s="70"/>
       <c r="S20" s="20">
         <v>8802</v>
       </c>
@@ -3921,26 +3981,26 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
       <c r="Q21" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="R21" s="61"/>
+      <c r="R21" s="70"/>
       <c r="S21" s="20">
         <v>18823</v>
       </c>
@@ -3949,26 +4009,26 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
       <c r="Q22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="R22" s="61"/>
+      <c r="R22" s="70"/>
       <c r="S22" s="20">
         <v>9406</v>
       </c>
@@ -3977,26 +4037,26 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
       <c r="Q23" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="R23" s="61"/>
+      <c r="R23" s="70"/>
       <c r="S23" s="20">
         <v>7048</v>
       </c>
@@ -4005,26 +4065,26 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
       <c r="Q24" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="R24" s="62"/>
+      <c r="R24" s="69"/>
       <c r="S24" s="21">
         <v>13740</v>
       </c>
@@ -4042,17 +4102,17 @@
       <c r="C25" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="D25" s="94" t="s">
+      <c r="D25" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="73">
+      <c r="E25" s="82">
         <v>43960</v>
       </c>
-      <c r="F25" s="60">
+      <c r="F25" s="68">
         <v>4.0960000000000001</v>
       </c>
       <c r="G25" s="66"/>
-      <c r="H25" s="102" t="s">
+      <c r="H25" s="81" t="s">
         <v>6</v>
       </c>
       <c r="I25" s="66" t="s">
@@ -4070,19 +4130,19 @@
       <c r="M25" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="N25" s="83" t="s">
+      <c r="N25" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="O25" s="83" t="s">
+      <c r="O25" s="62" t="s">
         <v>229</v>
       </c>
       <c r="P25" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="Q25" s="89" t="s">
+      <c r="Q25" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="R25" s="89">
+      <c r="R25" s="110">
         <v>51</v>
       </c>
       <c r="S25" s="19">
@@ -4093,24 +4153,24 @@
       </c>
     </row>
     <row r="26" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="90"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
       <c r="S26" s="21">
         <v>6540</v>
       </c>
@@ -4128,17 +4188,17 @@
       <c r="C27" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="D27" s="105" t="s">
+      <c r="D27" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="73">
+      <c r="E27" s="82">
         <v>44214</v>
       </c>
-      <c r="F27" s="60">
+      <c r="F27" s="68">
         <v>4.4749999999999996</v>
       </c>
       <c r="G27" s="66"/>
-      <c r="H27" s="102" t="s">
+      <c r="H27" s="81" t="s">
         <v>7</v>
       </c>
       <c r="I27" s="66" t="s">
@@ -4156,10 +4216,10 @@
       <c r="M27" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="N27" s="83" t="s">
+      <c r="N27" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="O27" s="83" t="s">
+      <c r="O27" s="62" t="s">
         <v>237</v>
       </c>
       <c r="P27" s="66" t="s">
@@ -4168,7 +4228,7 @@
       <c r="Q27" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="R27" s="60">
+      <c r="R27" s="68">
         <v>41</v>
       </c>
       <c r="S27" s="19">
@@ -4180,26 +4240,26 @@
       <c r="U27" s="3"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="67"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
       <c r="Q28" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="R28" s="61"/>
+      <c r="R28" s="70"/>
       <c r="S28" s="20">
         <v>308000</v>
       </c>
@@ -4209,26 +4269,26 @@
       <c r="U28" s="3"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
       <c r="Q29" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="R29" s="61"/>
+      <c r="R29" s="70"/>
       <c r="S29" s="20">
         <v>196966</v>
       </c>
@@ -4237,26 +4297,26 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
       <c r="Q30" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="R30" s="61"/>
+      <c r="R30" s="70"/>
       <c r="S30" s="20">
         <v>11466</v>
       </c>
@@ -4265,26 +4325,26 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="68"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="68"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
       <c r="Q31" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="R31" s="62"/>
+      <c r="R31" s="69"/>
       <c r="S31" s="21">
         <v>2834</v>
       </c>
@@ -4299,26 +4359,26 @@
       <c r="B32" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="D32" s="94" t="s">
+      <c r="D32" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="73">
+      <c r="E32" s="82">
         <v>44197</v>
       </c>
-      <c r="F32" s="60">
+      <c r="F32" s="68">
         <v>3.367</v>
       </c>
       <c r="G32" s="66"/>
-      <c r="H32" s="102" t="s">
+      <c r="H32" s="81" t="s">
         <v>8</v>
       </c>
       <c r="I32" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="J32" s="82" t="s">
+      <c r="J32" s="67" t="s">
         <v>242</v>
       </c>
       <c r="K32" s="66" t="s">
@@ -4333,16 +4393,16 @@
       <c r="N32" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="O32" s="83" t="s">
+      <c r="O32" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="P32" s="83" t="s">
+      <c r="P32" s="62" t="s">
         <v>245</v>
       </c>
       <c r="Q32" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="R32" s="60">
+      <c r="R32" s="68">
         <v>41</v>
       </c>
       <c r="S32" s="19">
@@ -4353,26 +4413,26 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
       <c r="Q33" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="R33" s="61"/>
+      <c r="R33" s="70"/>
       <c r="S33" s="20">
         <v>1450</v>
       </c>
@@ -4381,22 +4441,22 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="67"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="67"/>
-      <c r="M34" s="67"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="67"/>
-      <c r="P34" s="67"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
       <c r="Q34" s="20" t="s">
         <v>49</v>
       </c>
@@ -4411,22 +4471,22 @@
       </c>
     </row>
     <row r="35" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="68"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
       <c r="Q35" s="21" t="s">
         <v>50</v>
       </c>
@@ -4508,18 +4568,18 @@
       <c r="C37" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="D37" s="94"/>
-      <c r="E37" s="73">
+      <c r="D37" s="80"/>
+      <c r="E37" s="82">
         <v>43902</v>
       </c>
-      <c r="F37" s="60" t="s">
+      <c r="F37" s="68" t="s">
         <v>89</v>
       </c>
       <c r="G37" s="66"/>
-      <c r="H37" s="102" t="s">
+      <c r="H37" s="81" t="s">
         <v>257</v>
       </c>
-      <c r="I37" s="82" t="s">
+      <c r="I37" s="67" t="s">
         <v>263</v>
       </c>
       <c r="J37" s="66" t="s">
@@ -4531,13 +4591,13 @@
       <c r="L37" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="M37" s="82" t="s">
+      <c r="M37" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="N37" s="83" t="s">
+      <c r="N37" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="O37" s="83" t="s">
+      <c r="O37" s="62" t="s">
         <v>266</v>
       </c>
       <c r="P37" s="66" t="s">
@@ -4546,7 +4606,7 @@
       <c r="Q37" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="R37" s="60">
+      <c r="R37" s="68">
         <v>41</v>
       </c>
       <c r="S37" s="19">
@@ -4557,26 +4617,26 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
       <c r="Q38" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="R38" s="61"/>
+      <c r="R38" s="70"/>
       <c r="S38" s="20">
         <v>761300</v>
       </c>
@@ -4585,26 +4645,26 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="67"/>
-      <c r="P39" s="67"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
       <c r="Q39" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="R39" s="61"/>
+      <c r="R39" s="70"/>
       <c r="S39" s="20">
         <v>76104</v>
       </c>
@@ -4613,26 +4673,26 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="67"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
       <c r="Q40" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="R40" s="61"/>
+      <c r="R40" s="70"/>
       <c r="S40" s="20">
         <v>53028</v>
       </c>
@@ -4641,26 +4701,26 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="103"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="67"/>
-      <c r="P41" s="67"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
       <c r="Q41" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="R41" s="61"/>
+      <c r="R41" s="70"/>
       <c r="S41" s="20">
         <v>29354</v>
       </c>
@@ -4669,26 +4729,26 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="67"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="67"/>
-      <c r="P42" s="67"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
       <c r="Q42" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="R42" s="61"/>
+      <c r="R42" s="70"/>
       <c r="S42" s="20">
         <v>1553716</v>
       </c>
@@ -4697,26 +4757,26 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="67"/>
-      <c r="N43" s="67"/>
-      <c r="O43" s="67"/>
-      <c r="P43" s="67"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
       <c r="Q43" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="R43" s="61"/>
+      <c r="R43" s="70"/>
       <c r="S43" s="20">
         <v>326986</v>
       </c>
@@ -4725,26 +4785,26 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="67"/>
-      <c r="N44" s="67"/>
-      <c r="O44" s="67"/>
-      <c r="P44" s="67"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="63"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="63"/>
       <c r="Q44" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="R44" s="61"/>
+      <c r="R44" s="70"/>
       <c r="S44" s="20">
         <v>6903</v>
       </c>
@@ -4753,26 +4813,26 @@
       </c>
     </row>
     <row r="45" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="68"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
-      <c r="M45" s="68"/>
-      <c r="N45" s="68"/>
-      <c r="O45" s="68"/>
-      <c r="P45" s="68"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="64"/>
       <c r="Q45" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="R45" s="62"/>
+      <c r="R45" s="69"/>
       <c r="S45" s="21">
         <v>8188</v>
       </c>
@@ -4788,20 +4848,20 @@
       <c r="C46" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="D46" s="94" t="s">
+      <c r="D46" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="73">
+      <c r="E46" s="82">
         <v>44078</v>
       </c>
-      <c r="F46" s="60">
+      <c r="F46" s="68">
         <v>3.4910000000000001</v>
       </c>
       <c r="G46" s="66"/>
-      <c r="H46" s="102" t="s">
+      <c r="H46" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="I46" s="82" t="s">
+      <c r="I46" s="67" t="s">
         <v>270</v>
       </c>
       <c r="J46" s="66" t="s">
@@ -4828,7 +4888,7 @@
       <c r="Q46" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="R46" s="60">
+      <c r="R46" s="68">
         <v>41</v>
       </c>
       <c r="S46" s="19">
@@ -4839,26 +4899,26 @@
       </c>
     </row>
     <row r="47" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="68"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68"/>
-      <c r="O47" s="68"/>
-      <c r="P47" s="68"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="64"/>
       <c r="Q47" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="R47" s="62"/>
+      <c r="R47" s="69"/>
       <c r="S47" s="21">
         <v>3868</v>
       </c>
@@ -4867,47 +4927,47 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="71" t="s">
         <v>96</v>
       </c>
       <c r="C48" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="D48" s="60" t="s">
+      <c r="D48" s="68" t="s">
         <v>287</v>
       </c>
-      <c r="E48" s="73">
+      <c r="E48" s="82">
         <v>44046</v>
       </c>
-      <c r="F48" s="63" t="s">
+      <c r="F48" s="86" t="s">
         <v>288</v>
       </c>
       <c r="G48" s="66"/>
-      <c r="H48" s="76" t="s">
+      <c r="H48" s="112" t="s">
         <v>289</v>
       </c>
-      <c r="I48" s="72" t="s">
+      <c r="I48" s="71" t="s">
         <v>292</v>
       </c>
-      <c r="J48" s="72" t="s">
+      <c r="J48" s="71" t="s">
         <v>293</v>
       </c>
-      <c r="K48" s="72" t="s">
+      <c r="K48" s="71" t="s">
         <v>294</v>
       </c>
-      <c r="L48" s="63" t="s">
+      <c r="L48" s="86" t="s">
         <v>290</v>
       </c>
       <c r="M48" s="66" t="s">
         <v>281</v>
       </c>
-      <c r="N48" s="69" t="s">
+      <c r="N48" s="83" t="s">
         <v>291</v>
       </c>
-      <c r="O48" s="72" t="s">
+      <c r="O48" s="71" t="s">
         <v>298</v>
       </c>
       <c r="P48" s="66" t="s">
@@ -4916,7 +4976,7 @@
       <c r="Q48" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="R48" s="60">
+      <c r="R48" s="68">
         <v>61</v>
       </c>
       <c r="S48" s="50">
@@ -4927,26 +4987,26 @@
       </c>
     </row>
     <row r="49" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="70"/>
-      <c r="P49" s="67"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="113"/>
+      <c r="I49" s="92"/>
+      <c r="J49" s="92"/>
+      <c r="K49" s="92"/>
+      <c r="L49" s="87"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="92"/>
+      <c r="O49" s="92"/>
+      <c r="P49" s="63"/>
       <c r="Q49" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="R49" s="61"/>
+      <c r="R49" s="70"/>
       <c r="S49" s="52">
         <v>21306</v>
       </c>
@@ -4955,26 +5015,26 @@
       </c>
     </row>
     <row r="50" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="64"/>
-      <c r="M50" s="67"/>
-      <c r="N50" s="70"/>
-      <c r="O50" s="70"/>
-      <c r="P50" s="67"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="113"/>
+      <c r="I50" s="92"/>
+      <c r="J50" s="92"/>
+      <c r="K50" s="92"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="92"/>
+      <c r="O50" s="92"/>
+      <c r="P50" s="63"/>
       <c r="Q50" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="R50" s="61"/>
+      <c r="R50" s="70"/>
       <c r="S50" s="52">
         <v>67400</v>
       </c>
@@ -4983,26 +5043,26 @@
       </c>
     </row>
     <row r="51" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="70"/>
-      <c r="O51" s="70"/>
-      <c r="P51" s="67"/>
+      <c r="A51" s="70"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="113"/>
+      <c r="I51" s="92"/>
+      <c r="J51" s="92"/>
+      <c r="K51" s="92"/>
+      <c r="L51" s="87"/>
+      <c r="M51" s="63"/>
+      <c r="N51" s="92"/>
+      <c r="O51" s="92"/>
+      <c r="P51" s="63"/>
       <c r="Q51" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="R51" s="61">
+      <c r="R51" s="70">
         <v>401</v>
       </c>
       <c r="S51" s="52">
@@ -5013,26 +5073,26 @@
       </c>
     </row>
     <row r="52" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="64"/>
-      <c r="M52" s="67"/>
-      <c r="N52" s="70"/>
-      <c r="O52" s="70"/>
-      <c r="P52" s="67"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="113"/>
+      <c r="I52" s="92"/>
+      <c r="J52" s="92"/>
+      <c r="K52" s="92"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="63"/>
+      <c r="N52" s="92"/>
+      <c r="O52" s="92"/>
+      <c r="P52" s="63"/>
       <c r="Q52" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="R52" s="61"/>
+      <c r="R52" s="70"/>
       <c r="S52" s="52">
         <v>8726</v>
       </c>
@@ -5041,26 +5101,26 @@
       </c>
     </row>
     <row r="53" spans="1:20" s="43" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="62"/>
-      <c r="B53" s="71"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="71"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="71"/>
-      <c r="L53" s="65"/>
-      <c r="M53" s="68"/>
-      <c r="N53" s="71"/>
-      <c r="O53" s="71"/>
-      <c r="P53" s="68"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="88"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="114"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="88"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="72"/>
+      <c r="O53" s="72"/>
+      <c r="P53" s="64"/>
       <c r="Q53" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="R53" s="62"/>
+      <c r="R53" s="69"/>
       <c r="S53" s="51">
         <v>4894</v>
       </c>
@@ -5078,26 +5138,26 @@
       <c r="C54" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="D54" s="94" t="s">
+      <c r="D54" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="E54" s="73">
+      <c r="E54" s="82">
         <v>44418</v>
       </c>
-      <c r="F54" s="60">
+      <c r="F54" s="68">
         <v>7.7210000000000001</v>
       </c>
       <c r="G54" s="66"/>
-      <c r="H54" s="103" t="s">
+      <c r="H54" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="I54" s="67" t="s">
+      <c r="I54" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="J54" s="67" t="s">
+      <c r="J54" s="63" t="s">
         <v>301</v>
       </c>
-      <c r="K54" s="82" t="s">
+      <c r="K54" s="67" t="s">
         <v>218</v>
       </c>
       <c r="L54" s="66" t="s">
@@ -5109,16 +5169,16 @@
       <c r="N54" s="66" t="s">
         <v>303</v>
       </c>
-      <c r="O54" s="83" t="s">
+      <c r="O54" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="P54" s="83" t="s">
+      <c r="P54" s="62" t="s">
         <v>304</v>
       </c>
       <c r="Q54" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="R54" s="60">
+      <c r="R54" s="68">
         <v>41</v>
       </c>
       <c r="S54" s="19">
@@ -5129,26 +5189,26 @@
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="67"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="103"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="67"/>
-      <c r="M55" s="67"/>
-      <c r="N55" s="67"/>
-      <c r="O55" s="67"/>
-      <c r="P55" s="67"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="75"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="63"/>
+      <c r="M55" s="63"/>
+      <c r="N55" s="63"/>
+      <c r="O55" s="63"/>
+      <c r="P55" s="63"/>
       <c r="Q55" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="R55" s="61"/>
+      <c r="R55" s="70"/>
       <c r="S55" s="20">
         <v>10536</v>
       </c>
@@ -5157,26 +5217,26 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="67"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="103"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="67"/>
-      <c r="L56" s="67"/>
-      <c r="M56" s="67"/>
-      <c r="N56" s="67"/>
-      <c r="O56" s="67"/>
-      <c r="P56" s="67"/>
+      <c r="A56" s="63"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="73"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="63"/>
+      <c r="M56" s="63"/>
+      <c r="N56" s="63"/>
+      <c r="O56" s="63"/>
+      <c r="P56" s="63"/>
       <c r="Q56" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="R56" s="61"/>
+      <c r="R56" s="70"/>
       <c r="S56" s="20">
         <v>18294</v>
       </c>
@@ -5185,26 +5245,26 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="67"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="103"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="67"/>
-      <c r="M57" s="67"/>
-      <c r="N57" s="67"/>
-      <c r="O57" s="67"/>
-      <c r="P57" s="67"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="63"/>
+      <c r="O57" s="63"/>
+      <c r="P57" s="63"/>
       <c r="Q57" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="R57" s="61"/>
+      <c r="R57" s="70"/>
       <c r="S57" s="20">
         <v>32100</v>
       </c>
@@ -5213,26 +5273,26 @@
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
-      <c r="B58" s="67"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="96"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="103"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="67"/>
-      <c r="M58" s="67"/>
-      <c r="N58" s="67"/>
-      <c r="O58" s="67"/>
-      <c r="P58" s="67"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="73"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="63"/>
+      <c r="L58" s="63"/>
+      <c r="M58" s="63"/>
+      <c r="N58" s="63"/>
+      <c r="O58" s="63"/>
+      <c r="P58" s="63"/>
       <c r="Q58" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="R58" s="61"/>
+      <c r="R58" s="70"/>
       <c r="S58" s="20">
         <v>16532</v>
       </c>
@@ -5241,26 +5301,26 @@
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="67"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="103"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="67"/>
-      <c r="M59" s="67"/>
-      <c r="N59" s="67"/>
-      <c r="O59" s="67"/>
-      <c r="P59" s="67"/>
+      <c r="A59" s="63"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="63"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="63"/>
+      <c r="N59" s="63"/>
+      <c r="O59" s="63"/>
+      <c r="P59" s="63"/>
       <c r="Q59" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="R59" s="61"/>
+      <c r="R59" s="70"/>
       <c r="S59" s="20">
         <v>15810</v>
       </c>
@@ -5269,26 +5329,26 @@
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="67"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="96"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="103"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="67"/>
-      <c r="M60" s="67"/>
-      <c r="N60" s="67"/>
-      <c r="O60" s="67"/>
-      <c r="P60" s="67"/>
+      <c r="A60" s="63"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="63"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="63"/>
+      <c r="M60" s="63"/>
+      <c r="N60" s="63"/>
+      <c r="O60" s="63"/>
+      <c r="P60" s="63"/>
       <c r="Q60" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="R60" s="61"/>
+      <c r="R60" s="70"/>
       <c r="S60" s="20">
         <v>8802</v>
       </c>
@@ -5297,26 +5357,26 @@
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="67"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="103"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="67"/>
-      <c r="N61" s="67"/>
-      <c r="O61" s="67"/>
-      <c r="P61" s="67"/>
+      <c r="A61" s="63"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="75"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="63"/>
+      <c r="L61" s="63"/>
+      <c r="M61" s="63"/>
+      <c r="N61" s="63"/>
+      <c r="O61" s="63"/>
+      <c r="P61" s="63"/>
       <c r="Q61" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="R61" s="61"/>
+      <c r="R61" s="70"/>
       <c r="S61" s="20">
         <v>18823</v>
       </c>
@@ -5325,26 +5385,26 @@
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="67"/>
-      <c r="B62" s="67"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="96"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="103"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="67"/>
-      <c r="M62" s="67"/>
-      <c r="N62" s="67"/>
-      <c r="O62" s="67"/>
-      <c r="P62" s="67"/>
+      <c r="A62" s="63"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="73"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="63"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="63"/>
+      <c r="M62" s="63"/>
+      <c r="N62" s="63"/>
+      <c r="O62" s="63"/>
+      <c r="P62" s="63"/>
       <c r="Q62" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="R62" s="61"/>
+      <c r="R62" s="70"/>
       <c r="S62" s="20">
         <v>9406</v>
       </c>
@@ -5353,26 +5413,26 @@
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="67"/>
-      <c r="B63" s="67"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="96"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="103"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
-      <c r="N63" s="67"/>
-      <c r="O63" s="67"/>
-      <c r="P63" s="67"/>
+      <c r="A63" s="63"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
       <c r="Q63" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="R63" s="61"/>
+      <c r="R63" s="70"/>
       <c r="S63" s="20">
         <v>7048</v>
       </c>
@@ -5381,26 +5441,26 @@
       </c>
     </row>
     <row r="64" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="68"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="68"/>
-      <c r="D64" s="95"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="104"/>
-      <c r="I64" s="68"/>
-      <c r="J64" s="68"/>
-      <c r="K64" s="68"/>
-      <c r="L64" s="68"/>
-      <c r="M64" s="68"/>
-      <c r="N64" s="68"/>
-      <c r="O64" s="68"/>
-      <c r="P64" s="68"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="64"/>
+      <c r="L64" s="64"/>
+      <c r="M64" s="64"/>
+      <c r="N64" s="64"/>
+      <c r="O64" s="64"/>
+      <c r="P64" s="64"/>
       <c r="Q64" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="R64" s="62"/>
+      <c r="R64" s="69"/>
       <c r="S64" s="21">
         <v>13740</v>
       </c>
@@ -5418,17 +5478,17 @@
       <c r="C65" s="66" t="s">
         <v>305</v>
       </c>
-      <c r="D65" s="94" t="s">
+      <c r="D65" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="E65" s="73">
+      <c r="E65" s="82">
         <v>44330</v>
       </c>
-      <c r="F65" s="60">
+      <c r="F65" s="68">
         <v>4.38</v>
       </c>
       <c r="G65" s="66"/>
-      <c r="H65" s="79" t="s">
+      <c r="H65" s="77" t="s">
         <v>115</v>
       </c>
       <c r="I65" s="66" t="s">
@@ -5446,19 +5506,19 @@
       <c r="M65" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="N65" s="83" t="s">
+      <c r="N65" s="62" t="s">
         <v>311</v>
       </c>
-      <c r="O65" s="83" t="s">
+      <c r="O65" s="62" t="s">
         <v>310</v>
       </c>
-      <c r="P65" s="83" t="s">
+      <c r="P65" s="62" t="s">
         <v>309</v>
       </c>
       <c r="Q65" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="R65" s="60">
+      <c r="R65" s="68">
         <v>41</v>
       </c>
       <c r="S65" s="19">
@@ -5469,26 +5529,26 @@
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="67"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="96"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="67"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="67"/>
-      <c r="O66" s="67"/>
-      <c r="P66" s="67"/>
+      <c r="A66" s="63"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="78"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="63"/>
+      <c r="L66" s="63"/>
+      <c r="M66" s="63"/>
+      <c r="N66" s="63"/>
+      <c r="O66" s="63"/>
+      <c r="P66" s="63"/>
       <c r="Q66" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="R66" s="61"/>
+      <c r="R66" s="70"/>
       <c r="S66" s="20">
         <v>308000</v>
       </c>
@@ -5497,26 +5557,26 @@
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="67"/>
-      <c r="B67" s="67"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="96"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="80"/>
-      <c r="I67" s="67"/>
-      <c r="J67" s="67"/>
-      <c r="K67" s="67"/>
-      <c r="L67" s="67"/>
-      <c r="M67" s="67"/>
-      <c r="N67" s="67"/>
-      <c r="O67" s="67"/>
-      <c r="P67" s="67"/>
+      <c r="A67" s="63"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="78"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="63"/>
+      <c r="L67" s="63"/>
+      <c r="M67" s="63"/>
+      <c r="N67" s="63"/>
+      <c r="O67" s="63"/>
+      <c r="P67" s="63"/>
       <c r="Q67" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="R67" s="61"/>
+      <c r="R67" s="70"/>
       <c r="S67" s="20">
         <v>8979</v>
       </c>
@@ -5525,26 +5585,26 @@
       </c>
     </row>
     <row r="68" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="68"/>
-      <c r="B68" s="68"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="95"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="81"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="68"/>
-      <c r="K68" s="68"/>
-      <c r="L68" s="68"/>
-      <c r="M68" s="68"/>
-      <c r="N68" s="68"/>
-      <c r="O68" s="68"/>
-      <c r="P68" s="68"/>
+      <c r="A68" s="64"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="79"/>
+      <c r="I68" s="64"/>
+      <c r="J68" s="64"/>
+      <c r="K68" s="64"/>
+      <c r="L68" s="64"/>
+      <c r="M68" s="64"/>
+      <c r="N68" s="64"/>
+      <c r="O68" s="64"/>
+      <c r="P68" s="64"/>
       <c r="Q68" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="R68" s="62"/>
+      <c r="R68" s="69"/>
       <c r="S68" s="21">
         <v>67650</v>
       </c>
@@ -5562,17 +5622,17 @@
       <c r="C69" s="66" t="s">
         <v>313</v>
       </c>
-      <c r="D69" s="94" t="s">
+      <c r="D69" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="E69" s="73">
+      <c r="E69" s="82">
         <v>44230</v>
       </c>
-      <c r="F69" s="60">
+      <c r="F69" s="68">
         <v>2.984</v>
       </c>
       <c r="G69" s="66"/>
-      <c r="H69" s="79" t="s">
+      <c r="H69" s="77" t="s">
         <v>10</v>
       </c>
       <c r="I69" s="66" t="s">
@@ -5581,7 +5641,7 @@
       <c r="J69" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="K69" s="82" t="s">
+      <c r="K69" s="67" t="s">
         <v>218</v>
       </c>
       <c r="L69" s="66" t="s">
@@ -5590,19 +5650,19 @@
       <c r="M69" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="N69" s="83" t="s">
+      <c r="N69" s="62" t="s">
         <v>318</v>
       </c>
-      <c r="O69" s="83" t="s">
+      <c r="O69" s="62" t="s">
         <v>319</v>
       </c>
-      <c r="P69" s="83" t="s">
+      <c r="P69" s="62" t="s">
         <v>320</v>
       </c>
       <c r="Q69" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R69" s="60">
+      <c r="R69" s="68">
         <v>41</v>
       </c>
       <c r="S69" s="19">
@@ -5613,26 +5673,26 @@
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="67"/>
-      <c r="B70" s="67"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="96"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="80"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="67"/>
-      <c r="K70" s="67"/>
-      <c r="L70" s="67"/>
-      <c r="M70" s="67"/>
-      <c r="N70" s="67"/>
-      <c r="O70" s="67"/>
-      <c r="P70" s="67"/>
+      <c r="A70" s="63"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="78"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="63"/>
+      <c r="L70" s="63"/>
+      <c r="M70" s="63"/>
+      <c r="N70" s="63"/>
+      <c r="O70" s="63"/>
+      <c r="P70" s="63"/>
       <c r="Q70" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="R70" s="61"/>
+      <c r="R70" s="70"/>
       <c r="S70" s="20">
         <v>3868</v>
       </c>
@@ -5641,26 +5701,26 @@
       </c>
     </row>
     <row r="71" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="67"/>
-      <c r="B71" s="67"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="96"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="68"/>
-      <c r="H71" s="81"/>
-      <c r="I71" s="68"/>
-      <c r="J71" s="68"/>
-      <c r="K71" s="68"/>
-      <c r="L71" s="68"/>
-      <c r="M71" s="68"/>
-      <c r="N71" s="68"/>
-      <c r="O71" s="68"/>
-      <c r="P71" s="68"/>
+      <c r="A71" s="63"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="79"/>
+      <c r="I71" s="64"/>
+      <c r="J71" s="64"/>
+      <c r="K71" s="64"/>
+      <c r="L71" s="64"/>
+      <c r="M71" s="64"/>
+      <c r="N71" s="64"/>
+      <c r="O71" s="64"/>
+      <c r="P71" s="64"/>
       <c r="Q71" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="R71" s="62"/>
+      <c r="R71" s="69"/>
       <c r="S71" s="21">
         <v>1229712</v>
       </c>
@@ -5669,54 +5729,54 @@
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="92" t="s">
+      <c r="A72" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="B72" s="92"/>
-      <c r="C72" s="97" t="s">
+      <c r="B72" s="102"/>
+      <c r="C72" s="104" t="s">
         <v>321</v>
       </c>
-      <c r="D72" s="105" t="s">
+      <c r="D72" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="E72" s="73">
+      <c r="E72" s="82">
         <v>44209</v>
       </c>
-      <c r="F72" s="63">
+      <c r="F72" s="86">
         <v>11.622</v>
       </c>
-      <c r="G72" s="60"/>
-      <c r="H72" s="102" t="s">
+      <c r="G72" s="68"/>
+      <c r="H72" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="72" t="s">
+      <c r="I72" s="71" t="s">
         <v>322</v>
       </c>
-      <c r="J72" s="72" t="s">
+      <c r="J72" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="K72" s="60" t="s">
+      <c r="K72" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="L72" s="72" t="s">
+      <c r="L72" s="71" t="s">
         <v>324</v>
       </c>
-      <c r="M72" s="72" t="s">
+      <c r="M72" s="71" t="s">
         <v>331</v>
       </c>
-      <c r="N72" s="60" t="s">
+      <c r="N72" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="O72" s="72" t="s">
+      <c r="O72" s="71" t="s">
         <v>326</v>
       </c>
-      <c r="P72" s="83" t="s">
+      <c r="P72" s="62" t="s">
         <v>325</v>
       </c>
       <c r="Q72" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="R72" s="60">
+      <c r="R72" s="68">
         <v>41</v>
       </c>
       <c r="S72" s="19">
@@ -5727,26 +5787,26 @@
       </c>
     </row>
     <row r="73" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="93"/>
-      <c r="B73" s="93"/>
-      <c r="C73" s="98"/>
-      <c r="D73" s="107"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="62"/>
-      <c r="H73" s="104"/>
-      <c r="I73" s="71"/>
-      <c r="J73" s="71"/>
-      <c r="K73" s="62"/>
-      <c r="L73" s="71"/>
-      <c r="M73" s="71"/>
-      <c r="N73" s="62"/>
-      <c r="O73" s="71"/>
-      <c r="P73" s="68"/>
+      <c r="A73" s="103"/>
+      <c r="B73" s="103"/>
+      <c r="C73" s="105"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="76"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
+      <c r="K73" s="69"/>
+      <c r="L73" s="72"/>
+      <c r="M73" s="72"/>
+      <c r="N73" s="69"/>
+      <c r="O73" s="72"/>
+      <c r="P73" s="64"/>
       <c r="Q73" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="R73" s="62"/>
+      <c r="R73" s="69"/>
       <c r="S73" s="21">
         <v>21306</v>
       </c>
@@ -5755,26 +5815,26 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="67" t="s">
+      <c r="A74" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="B74" s="67" t="s">
+      <c r="B74" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="67" t="s">
+      <c r="C74" s="63" t="s">
         <v>327</v>
       </c>
-      <c r="D74" s="96" t="s">
+      <c r="D74" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="E74" s="74">
+      <c r="E74" s="96">
         <v>44430</v>
       </c>
-      <c r="F74" s="61">
+      <c r="F74" s="70">
         <v>2.6789999999999998</v>
       </c>
       <c r="G74" s="66"/>
-      <c r="H74" s="102" t="s">
+      <c r="H74" s="81" t="s">
         <v>12</v>
       </c>
       <c r="I74" s="66" t="s">
@@ -5792,10 +5852,10 @@
       <c r="M74" s="66" t="s">
         <v>331</v>
       </c>
-      <c r="N74" s="83" t="s">
+      <c r="N74" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="O74" s="83" t="s">
+      <c r="O74" s="62" t="s">
         <v>332</v>
       </c>
       <c r="P74" s="66" t="s">
@@ -5804,7 +5864,7 @@
       <c r="Q74" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="R74" s="60">
+      <c r="R74" s="68">
         <v>41</v>
       </c>
       <c r="S74" s="19">
@@ -5815,26 +5875,26 @@
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="67"/>
-      <c r="B75" s="67"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="96"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="67"/>
-      <c r="H75" s="103"/>
-      <c r="I75" s="67"/>
-      <c r="J75" s="67"/>
-      <c r="K75" s="67"/>
-      <c r="L75" s="67"/>
-      <c r="M75" s="67"/>
-      <c r="N75" s="67"/>
-      <c r="O75" s="67"/>
-      <c r="P75" s="67"/>
+      <c r="A75" s="63"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="73"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="75"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="63"/>
+      <c r="M75" s="63"/>
+      <c r="N75" s="63"/>
+      <c r="O75" s="63"/>
+      <c r="P75" s="63"/>
       <c r="Q75" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="R75" s="61"/>
+      <c r="R75" s="70"/>
       <c r="S75" s="20">
         <v>1760</v>
       </c>
@@ -5843,26 +5903,26 @@
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" s="67"/>
-      <c r="B76" s="67"/>
-      <c r="C76" s="67"/>
-      <c r="D76" s="96"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="103"/>
-      <c r="I76" s="67"/>
-      <c r="J76" s="67"/>
-      <c r="K76" s="67"/>
-      <c r="L76" s="67"/>
-      <c r="M76" s="67"/>
-      <c r="N76" s="67"/>
-      <c r="O76" s="67"/>
-      <c r="P76" s="67"/>
+      <c r="A76" s="63"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="75"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="63"/>
+      <c r="K76" s="63"/>
+      <c r="L76" s="63"/>
+      <c r="M76" s="63"/>
+      <c r="N76" s="63"/>
+      <c r="O76" s="63"/>
+      <c r="P76" s="63"/>
       <c r="Q76" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="R76" s="61"/>
+      <c r="R76" s="70"/>
       <c r="S76" s="20">
         <v>31874</v>
       </c>
@@ -5871,26 +5931,26 @@
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" s="67"/>
-      <c r="B77" s="67"/>
-      <c r="C77" s="67"/>
-      <c r="D77" s="96"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="67"/>
-      <c r="H77" s="103"/>
-      <c r="I77" s="67"/>
-      <c r="J77" s="67"/>
-      <c r="K77" s="67"/>
-      <c r="L77" s="67"/>
-      <c r="M77" s="67"/>
-      <c r="N77" s="67"/>
-      <c r="O77" s="67"/>
-      <c r="P77" s="67"/>
+      <c r="A77" s="63"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="75"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="63"/>
+      <c r="L77" s="63"/>
+      <c r="M77" s="63"/>
+      <c r="N77" s="63"/>
+      <c r="O77" s="63"/>
+      <c r="P77" s="63"/>
       <c r="Q77" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="R77" s="61"/>
+      <c r="R77" s="70"/>
       <c r="S77" s="20">
         <v>23630</v>
       </c>
@@ -5899,26 +5959,26 @@
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" s="67"/>
-      <c r="B78" s="67"/>
-      <c r="C78" s="67"/>
-      <c r="D78" s="96"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="103"/>
-      <c r="I78" s="67"/>
-      <c r="J78" s="67"/>
-      <c r="K78" s="67"/>
-      <c r="L78" s="67"/>
-      <c r="M78" s="67"/>
-      <c r="N78" s="67"/>
-      <c r="O78" s="67"/>
-      <c r="P78" s="67"/>
+      <c r="A78" s="63"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="75"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="63"/>
+      <c r="K78" s="63"/>
+      <c r="L78" s="63"/>
+      <c r="M78" s="63"/>
+      <c r="N78" s="63"/>
+      <c r="O78" s="63"/>
+      <c r="P78" s="63"/>
       <c r="Q78" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="R78" s="61"/>
+      <c r="R78" s="70"/>
       <c r="S78" s="20">
         <v>45400</v>
       </c>
@@ -5927,26 +5987,26 @@
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" s="67"/>
-      <c r="B79" s="67"/>
-      <c r="C79" s="67"/>
-      <c r="D79" s="96"/>
-      <c r="E79" s="61"/>
-      <c r="F79" s="61"/>
-      <c r="G79" s="67"/>
-      <c r="H79" s="103"/>
-      <c r="I79" s="67"/>
-      <c r="J79" s="67"/>
-      <c r="K79" s="67"/>
-      <c r="L79" s="67"/>
-      <c r="M79" s="67"/>
-      <c r="N79" s="67"/>
-      <c r="O79" s="67"/>
-      <c r="P79" s="67"/>
+      <c r="A79" s="63"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="73"/>
+      <c r="E79" s="70"/>
+      <c r="F79" s="70"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="75"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="63"/>
+      <c r="M79" s="63"/>
+      <c r="N79" s="63"/>
+      <c r="O79" s="63"/>
+      <c r="P79" s="63"/>
       <c r="Q79" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="R79" s="61"/>
+      <c r="R79" s="70"/>
       <c r="S79" s="20">
         <v>36670</v>
       </c>
@@ -5955,26 +6015,26 @@
       </c>
     </row>
     <row r="80" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="68"/>
-      <c r="B80" s="68"/>
-      <c r="C80" s="68"/>
-      <c r="D80" s="95"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="68"/>
-      <c r="H80" s="104"/>
-      <c r="I80" s="68"/>
-      <c r="J80" s="68"/>
-      <c r="K80" s="68"/>
-      <c r="L80" s="68"/>
-      <c r="M80" s="68"/>
-      <c r="N80" s="68"/>
-      <c r="O80" s="68"/>
-      <c r="P80" s="68"/>
+      <c r="A80" s="64"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="74"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="76"/>
+      <c r="I80" s="64"/>
+      <c r="J80" s="64"/>
+      <c r="K80" s="64"/>
+      <c r="L80" s="64"/>
+      <c r="M80" s="64"/>
+      <c r="N80" s="64"/>
+      <c r="O80" s="64"/>
+      <c r="P80" s="64"/>
       <c r="Q80" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="R80" s="62"/>
+      <c r="R80" s="69"/>
       <c r="S80" s="21">
         <v>22382</v>
       </c>
@@ -5992,17 +6052,17 @@
       <c r="C81" s="66" t="s">
         <v>334</v>
       </c>
-      <c r="D81" s="94" t="s">
+      <c r="D81" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="E81" s="73">
+      <c r="E81" s="82">
         <v>44570</v>
       </c>
-      <c r="F81" s="60" t="s">
+      <c r="F81" s="68" t="s">
         <v>89</v>
       </c>
       <c r="G81" s="66"/>
-      <c r="H81" s="102" t="s">
+      <c r="H81" s="81" t="s">
         <v>13</v>
       </c>
       <c r="I81" s="66" t="s">
@@ -6032,7 +6092,7 @@
       <c r="Q81" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="R81" s="60">
+      <c r="R81" s="68">
         <v>41</v>
       </c>
       <c r="S81" s="19">
@@ -6043,26 +6103,26 @@
       </c>
     </row>
     <row r="82" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="68"/>
-      <c r="B82" s="68"/>
-      <c r="C82" s="68"/>
-      <c r="D82" s="95"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="62"/>
-      <c r="G82" s="68"/>
-      <c r="H82" s="104"/>
-      <c r="I82" s="68"/>
-      <c r="J82" s="68"/>
-      <c r="K82" s="68"/>
-      <c r="L82" s="68"/>
-      <c r="M82" s="68"/>
-      <c r="N82" s="68"/>
-      <c r="O82" s="68"/>
-      <c r="P82" s="68"/>
+      <c r="A82" s="64"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="69"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="76"/>
+      <c r="I82" s="64"/>
+      <c r="J82" s="64"/>
+      <c r="K82" s="64"/>
+      <c r="L82" s="64"/>
+      <c r="M82" s="64"/>
+      <c r="N82" s="64"/>
+      <c r="O82" s="64"/>
+      <c r="P82" s="64"/>
       <c r="Q82" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="R82" s="62"/>
+      <c r="R82" s="69"/>
       <c r="S82" s="21">
         <v>24000</v>
       </c>
@@ -6080,17 +6140,17 @@
       <c r="C83" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="D83" s="105" t="s">
+      <c r="D83" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="E83" s="73">
+      <c r="E83" s="82">
         <v>44576</v>
       </c>
-      <c r="F83" s="60">
+      <c r="F83" s="68">
         <v>11.622</v>
       </c>
       <c r="G83" s="66"/>
-      <c r="H83" s="102" t="s">
+      <c r="H83" s="81" t="s">
         <v>14</v>
       </c>
       <c r="I83" s="66" t="s">
@@ -6099,7 +6159,7 @@
       <c r="J83" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="K83" s="82" t="s">
+      <c r="K83" s="67" t="s">
         <v>342</v>
       </c>
       <c r="L83" s="66" t="s">
@@ -6108,10 +6168,10 @@
       <c r="M83" s="66" t="s">
         <v>376</v>
       </c>
-      <c r="N83" s="83" t="s">
+      <c r="N83" s="62" t="s">
         <v>344</v>
       </c>
-      <c r="O83" s="83" t="s">
+      <c r="O83" s="62" t="s">
         <v>344</v>
       </c>
       <c r="P83" s="66" t="s">
@@ -6120,7 +6180,7 @@
       <c r="Q83" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="R83" s="60">
+      <c r="R83" s="68">
         <v>41</v>
       </c>
       <c r="S83" s="19">
@@ -6131,26 +6191,26 @@
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A84" s="67"/>
-      <c r="B84" s="67"/>
-      <c r="C84" s="67"/>
-      <c r="D84" s="106"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="103"/>
-      <c r="I84" s="67"/>
-      <c r="J84" s="67"/>
-      <c r="K84" s="67"/>
-      <c r="L84" s="67"/>
-      <c r="M84" s="67"/>
-      <c r="N84" s="67"/>
-      <c r="O84" s="67"/>
-      <c r="P84" s="67"/>
+      <c r="A84" s="63"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="95"/>
+      <c r="E84" s="70"/>
+      <c r="F84" s="70"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="75"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="63"/>
+      <c r="K84" s="63"/>
+      <c r="L84" s="63"/>
+      <c r="M84" s="63"/>
+      <c r="N84" s="63"/>
+      <c r="O84" s="63"/>
+      <c r="P84" s="63"/>
       <c r="Q84" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="R84" s="61"/>
+      <c r="R84" s="70"/>
       <c r="S84" s="20">
         <v>308000</v>
       </c>
@@ -6159,26 +6219,26 @@
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" s="67"/>
-      <c r="B85" s="67"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="106"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="67"/>
-      <c r="H85" s="103"/>
-      <c r="I85" s="67"/>
-      <c r="J85" s="67"/>
-      <c r="K85" s="67"/>
-      <c r="L85" s="67"/>
-      <c r="M85" s="67"/>
-      <c r="N85" s="67"/>
-      <c r="O85" s="67"/>
-      <c r="P85" s="67"/>
+      <c r="A85" s="63"/>
+      <c r="B85" s="63"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="95"/>
+      <c r="E85" s="70"/>
+      <c r="F85" s="70"/>
+      <c r="G85" s="63"/>
+      <c r="H85" s="75"/>
+      <c r="I85" s="63"/>
+      <c r="J85" s="63"/>
+      <c r="K85" s="63"/>
+      <c r="L85" s="63"/>
+      <c r="M85" s="63"/>
+      <c r="N85" s="63"/>
+      <c r="O85" s="63"/>
+      <c r="P85" s="63"/>
       <c r="Q85" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="R85" s="61"/>
+      <c r="R85" s="70"/>
       <c r="S85" s="20">
         <v>20000</v>
       </c>
@@ -6187,26 +6247,26 @@
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86" s="67"/>
-      <c r="B86" s="67"/>
-      <c r="C86" s="67"/>
-      <c r="D86" s="106"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="67"/>
-      <c r="H86" s="103"/>
-      <c r="I86" s="67"/>
-      <c r="J86" s="67"/>
-      <c r="K86" s="67"/>
-      <c r="L86" s="67"/>
-      <c r="M86" s="67"/>
-      <c r="N86" s="67"/>
-      <c r="O86" s="67"/>
-      <c r="P86" s="67"/>
+      <c r="A86" s="63"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="95"/>
+      <c r="E86" s="70"/>
+      <c r="F86" s="70"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="75"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="63"/>
+      <c r="K86" s="63"/>
+      <c r="L86" s="63"/>
+      <c r="M86" s="63"/>
+      <c r="N86" s="63"/>
+      <c r="O86" s="63"/>
+      <c r="P86" s="63"/>
       <c r="Q86" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="R86" s="61"/>
+      <c r="R86" s="70"/>
       <c r="S86" s="20">
         <v>31874</v>
       </c>
@@ -6215,26 +6275,26 @@
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" s="67"/>
-      <c r="B87" s="67"/>
-      <c r="C87" s="67"/>
-      <c r="D87" s="106"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="61"/>
-      <c r="G87" s="67"/>
-      <c r="H87" s="103"/>
-      <c r="I87" s="67"/>
-      <c r="J87" s="67"/>
-      <c r="K87" s="67"/>
-      <c r="L87" s="67"/>
-      <c r="M87" s="67"/>
-      <c r="N87" s="67"/>
-      <c r="O87" s="67"/>
-      <c r="P87" s="67"/>
+      <c r="A87" s="63"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="95"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="63"/>
+      <c r="H87" s="75"/>
+      <c r="I87" s="63"/>
+      <c r="J87" s="63"/>
+      <c r="K87" s="63"/>
+      <c r="L87" s="63"/>
+      <c r="M87" s="63"/>
+      <c r="N87" s="63"/>
+      <c r="O87" s="63"/>
+      <c r="P87" s="63"/>
       <c r="Q87" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="R87" s="61"/>
+      <c r="R87" s="70"/>
       <c r="S87" s="20">
         <v>22382</v>
       </c>
@@ -6243,26 +6303,26 @@
       </c>
     </row>
     <row r="88" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="68"/>
-      <c r="B88" s="68"/>
-      <c r="C88" s="68"/>
-      <c r="D88" s="107"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="68"/>
-      <c r="H88" s="104"/>
-      <c r="I88" s="68"/>
-      <c r="J88" s="68"/>
-      <c r="K88" s="68"/>
-      <c r="L88" s="68"/>
-      <c r="M88" s="68"/>
-      <c r="N88" s="68"/>
-      <c r="O88" s="68"/>
-      <c r="P88" s="68"/>
+      <c r="A88" s="64"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="94"/>
+      <c r="E88" s="69"/>
+      <c r="F88" s="69"/>
+      <c r="G88" s="64"/>
+      <c r="H88" s="76"/>
+      <c r="I88" s="64"/>
+      <c r="J88" s="64"/>
+      <c r="K88" s="64"/>
+      <c r="L88" s="64"/>
+      <c r="M88" s="64"/>
+      <c r="N88" s="64"/>
+      <c r="O88" s="64"/>
+      <c r="P88" s="64"/>
       <c r="Q88" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="R88" s="62"/>
+      <c r="R88" s="69"/>
       <c r="S88" s="30">
         <v>23630</v>
       </c>
@@ -6280,17 +6340,17 @@
       <c r="C89" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D89" s="94" t="s">
+      <c r="D89" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="E89" s="73">
+      <c r="E89" s="82">
         <v>44405</v>
       </c>
-      <c r="F89" s="60">
+      <c r="F89" s="68">
         <v>4.0960000000000001</v>
       </c>
       <c r="G89" s="66"/>
-      <c r="H89" s="79" t="s">
+      <c r="H89" s="77" t="s">
         <v>15</v>
       </c>
       <c r="I89" s="66" t="s">
@@ -6308,7 +6368,7 @@
       <c r="M89" s="66" t="s">
         <v>350</v>
       </c>
-      <c r="N89" s="83" t="s">
+      <c r="N89" s="62" t="s">
         <v>352</v>
       </c>
       <c r="O89" s="66" t="s">
@@ -6320,7 +6380,7 @@
       <c r="Q89" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="R89" s="60">
+      <c r="R89" s="68">
         <v>41</v>
       </c>
       <c r="S89" s="31">
@@ -6331,26 +6391,26 @@
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90" s="67"/>
-      <c r="B90" s="67"/>
-      <c r="C90" s="67"/>
-      <c r="D90" s="96"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="80"/>
-      <c r="I90" s="67"/>
-      <c r="J90" s="67"/>
-      <c r="K90" s="67"/>
-      <c r="L90" s="67"/>
-      <c r="M90" s="67"/>
-      <c r="N90" s="67"/>
-      <c r="O90" s="67"/>
-      <c r="P90" s="67"/>
+      <c r="A90" s="63"/>
+      <c r="B90" s="63"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="73"/>
+      <c r="E90" s="70"/>
+      <c r="F90" s="70"/>
+      <c r="G90" s="63"/>
+      <c r="H90" s="78"/>
+      <c r="I90" s="63"/>
+      <c r="J90" s="63"/>
+      <c r="K90" s="63"/>
+      <c r="L90" s="63"/>
+      <c r="M90" s="63"/>
+      <c r="N90" s="63"/>
+      <c r="O90" s="63"/>
+      <c r="P90" s="63"/>
       <c r="Q90" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="R90" s="61"/>
+      <c r="R90" s="70"/>
       <c r="S90" s="31">
         <v>1450</v>
       </c>
@@ -6359,22 +6419,22 @@
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91" s="67"/>
-      <c r="B91" s="67"/>
-      <c r="C91" s="67"/>
-      <c r="D91" s="96"/>
-      <c r="E91" s="61"/>
-      <c r="F91" s="61"/>
-      <c r="G91" s="67"/>
-      <c r="H91" s="80"/>
-      <c r="I91" s="67"/>
-      <c r="J91" s="67"/>
-      <c r="K91" s="67"/>
-      <c r="L91" s="67"/>
-      <c r="M91" s="67"/>
-      <c r="N91" s="67"/>
-      <c r="O91" s="67"/>
-      <c r="P91" s="67"/>
+      <c r="A91" s="63"/>
+      <c r="B91" s="63"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="73"/>
+      <c r="E91" s="70"/>
+      <c r="F91" s="70"/>
+      <c r="G91" s="63"/>
+      <c r="H91" s="78"/>
+      <c r="I91" s="63"/>
+      <c r="J91" s="63"/>
+      <c r="K91" s="63"/>
+      <c r="L91" s="63"/>
+      <c r="M91" s="63"/>
+      <c r="N91" s="63"/>
+      <c r="O91" s="63"/>
+      <c r="P91" s="63"/>
       <c r="Q91" s="20" t="s">
         <v>77</v>
       </c>
@@ -6389,22 +6449,22 @@
       </c>
     </row>
     <row r="92" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="68"/>
-      <c r="B92" s="68"/>
-      <c r="C92" s="68"/>
-      <c r="D92" s="95"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="81"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="68"/>
-      <c r="K92" s="68"/>
-      <c r="L92" s="68"/>
-      <c r="M92" s="68"/>
-      <c r="N92" s="68"/>
-      <c r="O92" s="68"/>
-      <c r="P92" s="68"/>
+      <c r="A92" s="64"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="74"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="64"/>
+      <c r="H92" s="79"/>
+      <c r="I92" s="64"/>
+      <c r="J92" s="64"/>
+      <c r="K92" s="64"/>
+      <c r="L92" s="64"/>
+      <c r="M92" s="64"/>
+      <c r="N92" s="64"/>
+      <c r="O92" s="64"/>
+      <c r="P92" s="64"/>
       <c r="Q92" s="26" t="s">
         <v>98</v>
       </c>
@@ -6428,15 +6488,15 @@
       <c r="C93" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="D93" s="94"/>
-      <c r="E93" s="73">
+      <c r="D93" s="80"/>
+      <c r="E93" s="82">
         <v>44628</v>
       </c>
-      <c r="F93" s="60" t="s">
+      <c r="F93" s="68" t="s">
         <v>89</v>
       </c>
       <c r="G93" s="66"/>
-      <c r="H93" s="102" t="s">
+      <c r="H93" s="81" t="s">
         <v>16</v>
       </c>
       <c r="I93" s="66" t="s">
@@ -6457,7 +6517,7 @@
       <c r="N93" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="O93" s="83" t="s">
+      <c r="O93" s="62" t="s">
         <v>358</v>
       </c>
       <c r="P93" s="66" t="s">
@@ -6466,7 +6526,7 @@
       <c r="Q93" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="R93" s="60">
+      <c r="R93" s="68">
         <v>41</v>
       </c>
       <c r="S93" s="31">
@@ -6477,26 +6537,26 @@
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A94" s="67"/>
-      <c r="B94" s="67"/>
-      <c r="C94" s="67"/>
-      <c r="D94" s="96"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="61"/>
-      <c r="G94" s="67"/>
-      <c r="H94" s="103"/>
-      <c r="I94" s="67"/>
-      <c r="J94" s="67"/>
-      <c r="K94" s="67"/>
-      <c r="L94" s="67"/>
-      <c r="M94" s="67"/>
-      <c r="N94" s="67"/>
-      <c r="O94" s="67"/>
-      <c r="P94" s="67"/>
+      <c r="A94" s="63"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="73"/>
+      <c r="E94" s="70"/>
+      <c r="F94" s="70"/>
+      <c r="G94" s="63"/>
+      <c r="H94" s="75"/>
+      <c r="I94" s="63"/>
+      <c r="J94" s="63"/>
+      <c r="K94" s="63"/>
+      <c r="L94" s="63"/>
+      <c r="M94" s="63"/>
+      <c r="N94" s="63"/>
+      <c r="O94" s="63"/>
+      <c r="P94" s="63"/>
       <c r="Q94" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="R94" s="61"/>
+      <c r="R94" s="70"/>
       <c r="S94" s="20">
         <v>8606</v>
       </c>
@@ -6505,26 +6565,26 @@
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A95" s="67"/>
-      <c r="B95" s="67"/>
-      <c r="C95" s="67"/>
-      <c r="D95" s="96"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="61"/>
-      <c r="G95" s="67"/>
-      <c r="H95" s="103"/>
-      <c r="I95" s="67"/>
-      <c r="J95" s="67"/>
-      <c r="K95" s="67"/>
-      <c r="L95" s="67"/>
-      <c r="M95" s="67"/>
-      <c r="N95" s="67"/>
-      <c r="O95" s="67"/>
-      <c r="P95" s="67"/>
+      <c r="A95" s="63"/>
+      <c r="B95" s="63"/>
+      <c r="C95" s="63"/>
+      <c r="D95" s="73"/>
+      <c r="E95" s="70"/>
+      <c r="F95" s="70"/>
+      <c r="G95" s="63"/>
+      <c r="H95" s="75"/>
+      <c r="I95" s="63"/>
+      <c r="J95" s="63"/>
+      <c r="K95" s="63"/>
+      <c r="L95" s="63"/>
+      <c r="M95" s="63"/>
+      <c r="N95" s="63"/>
+      <c r="O95" s="63"/>
+      <c r="P95" s="63"/>
       <c r="Q95" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="R95" s="61"/>
+      <c r="R95" s="70"/>
       <c r="S95" s="20">
         <v>776</v>
       </c>
@@ -6533,22 +6593,22 @@
       </c>
     </row>
     <row r="96" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="68"/>
-      <c r="B96" s="68"/>
-      <c r="C96" s="68"/>
-      <c r="D96" s="95"/>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62"/>
-      <c r="G96" s="68"/>
-      <c r="H96" s="104"/>
-      <c r="I96" s="68"/>
-      <c r="J96" s="68"/>
-      <c r="K96" s="68"/>
-      <c r="L96" s="68"/>
-      <c r="M96" s="68"/>
-      <c r="N96" s="68"/>
-      <c r="O96" s="68"/>
-      <c r="P96" s="68"/>
+      <c r="A96" s="64"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="74"/>
+      <c r="E96" s="69"/>
+      <c r="F96" s="69"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="76"/>
+      <c r="I96" s="64"/>
+      <c r="J96" s="64"/>
+      <c r="K96" s="64"/>
+      <c r="L96" s="64"/>
+      <c r="M96" s="64"/>
+      <c r="N96" s="64"/>
+      <c r="O96" s="64"/>
+      <c r="P96" s="64"/>
       <c r="Q96" s="26" t="s">
         <v>98</v>
       </c>
@@ -6621,54 +6681,54 @@
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A98" s="67" t="s">
+      <c r="A98" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="B98" s="67" t="s">
+      <c r="B98" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C98" s="67" t="s">
+      <c r="C98" s="63" t="s">
         <v>371</v>
       </c>
-      <c r="D98" s="96"/>
-      <c r="E98" s="74">
+      <c r="D98" s="73"/>
+      <c r="E98" s="96">
         <v>44587</v>
       </c>
-      <c r="F98" s="61" t="s">
+      <c r="F98" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="G98" s="67"/>
-      <c r="H98" s="103" t="s">
+      <c r="G98" s="63"/>
+      <c r="H98" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="I98" s="67" t="s">
+      <c r="I98" s="63" t="s">
         <v>372</v>
       </c>
-      <c r="J98" s="67" t="s">
+      <c r="J98" s="63" t="s">
         <v>373</v>
       </c>
-      <c r="K98" s="67" t="s">
+      <c r="K98" s="63" t="s">
         <v>374</v>
       </c>
-      <c r="L98" s="67" t="s">
+      <c r="L98" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="M98" s="67" t="s">
+      <c r="M98" s="63" t="s">
         <v>376</v>
       </c>
-      <c r="N98" s="67" t="s">
+      <c r="N98" s="63" t="s">
         <v>377</v>
       </c>
-      <c r="O98" s="67" t="s">
+      <c r="O98" s="63" t="s">
         <v>377</v>
       </c>
-      <c r="P98" s="67" t="s">
+      <c r="P98" s="63" t="s">
         <v>168</v>
       </c>
       <c r="Q98" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="R98" s="61">
+      <c r="R98" s="70">
         <v>41</v>
       </c>
       <c r="S98" s="31">
@@ -6679,26 +6739,26 @@
       </c>
     </row>
     <row r="99" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="68"/>
-      <c r="B99" s="68"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="95"/>
-      <c r="E99" s="62"/>
-      <c r="F99" s="62"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="104"/>
-      <c r="I99" s="68"/>
-      <c r="J99" s="68"/>
-      <c r="K99" s="68"/>
-      <c r="L99" s="68"/>
-      <c r="M99" s="68"/>
-      <c r="N99" s="68"/>
-      <c r="O99" s="68"/>
-      <c r="P99" s="68"/>
+      <c r="A99" s="64"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="64"/>
+      <c r="D99" s="74"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="69"/>
+      <c r="G99" s="64"/>
+      <c r="H99" s="76"/>
+      <c r="I99" s="64"/>
+      <c r="J99" s="64"/>
+      <c r="K99" s="64"/>
+      <c r="L99" s="64"/>
+      <c r="M99" s="64"/>
+      <c r="N99" s="64"/>
+      <c r="O99" s="64"/>
+      <c r="P99" s="64"/>
       <c r="Q99" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="R99" s="62"/>
+      <c r="R99" s="69"/>
       <c r="S99" s="21">
         <v>31873</v>
       </c>
@@ -6716,15 +6776,15 @@
       <c r="C100" s="66" t="s">
         <v>380</v>
       </c>
-      <c r="D100" s="94"/>
-      <c r="E100" s="73">
+      <c r="D100" s="80"/>
+      <c r="E100" s="82">
         <v>44110</v>
       </c>
-      <c r="F100" s="60" t="s">
+      <c r="F100" s="68" t="s">
         <v>381</v>
       </c>
       <c r="G100" s="66"/>
-      <c r="H100" s="99" t="s">
+      <c r="H100" s="101" t="s">
         <v>170</v>
       </c>
       <c r="I100" s="66" t="s">
@@ -6733,7 +6793,7 @@
       <c r="J100" s="66" t="s">
         <v>383</v>
       </c>
-      <c r="K100" s="82" t="s">
+      <c r="K100" s="67" t="s">
         <v>384</v>
       </c>
       <c r="L100" s="66" t="s">
@@ -6742,7 +6802,7 @@
       <c r="M100" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="N100" s="83" t="s">
+      <c r="N100" s="62" t="s">
         <v>386</v>
       </c>
       <c r="O100" s="66" t="s">
@@ -6765,22 +6825,22 @@
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101" s="67"/>
-      <c r="B101" s="67"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="96"/>
-      <c r="E101" s="61"/>
-      <c r="F101" s="61"/>
-      <c r="G101" s="67"/>
-      <c r="H101" s="100"/>
-      <c r="I101" s="67"/>
-      <c r="J101" s="67"/>
-      <c r="K101" s="67"/>
-      <c r="L101" s="67"/>
-      <c r="M101" s="67"/>
-      <c r="N101" s="67"/>
-      <c r="O101" s="67"/>
-      <c r="P101" s="67"/>
+      <c r="A101" s="63"/>
+      <c r="B101" s="63"/>
+      <c r="C101" s="63"/>
+      <c r="D101" s="73"/>
+      <c r="E101" s="70"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="99"/>
+      <c r="I101" s="63"/>
+      <c r="J101" s="63"/>
+      <c r="K101" s="63"/>
+      <c r="L101" s="63"/>
+      <c r="M101" s="63"/>
+      <c r="N101" s="63"/>
+      <c r="O101" s="63"/>
+      <c r="P101" s="63"/>
       <c r="Q101" s="12" t="s">
         <v>117</v>
       </c>
@@ -6795,22 +6855,22 @@
       </c>
     </row>
     <row r="102" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="68"/>
-      <c r="B102" s="68"/>
-      <c r="C102" s="68"/>
-      <c r="D102" s="95"/>
-      <c r="E102" s="62"/>
-      <c r="F102" s="62"/>
-      <c r="G102" s="68"/>
-      <c r="H102" s="101"/>
-      <c r="I102" s="68"/>
-      <c r="J102" s="68"/>
-      <c r="K102" s="68"/>
-      <c r="L102" s="68"/>
-      <c r="M102" s="68"/>
-      <c r="N102" s="68"/>
-      <c r="O102" s="68"/>
-      <c r="P102" s="68"/>
+      <c r="A102" s="64"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="74"/>
+      <c r="E102" s="69"/>
+      <c r="F102" s="69"/>
+      <c r="G102" s="64"/>
+      <c r="H102" s="100"/>
+      <c r="I102" s="64"/>
+      <c r="J102" s="64"/>
+      <c r="K102" s="64"/>
+      <c r="L102" s="64"/>
+      <c r="M102" s="64"/>
+      <c r="N102" s="64"/>
+      <c r="O102" s="64"/>
+      <c r="P102" s="64"/>
       <c r="Q102" s="28" t="s">
         <v>118</v>
       </c>
@@ -6870,13 +6930,13 @@
         <v>136</v>
       </c>
       <c r="C104" s="66"/>
-      <c r="D104" s="94"/>
-      <c r="E104" s="60">
+      <c r="D104" s="80"/>
+      <c r="E104" s="68">
         <v>2019</v>
       </c>
-      <c r="F104" s="60"/>
+      <c r="F104" s="68"/>
       <c r="G104" s="66"/>
-      <c r="H104" s="108" t="s">
+      <c r="H104" s="98" t="s">
         <v>172</v>
       </c>
       <c r="I104" s="66"/>
@@ -6901,22 +6961,22 @@
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A105" s="67"/>
-      <c r="B105" s="67"/>
-      <c r="C105" s="67"/>
-      <c r="D105" s="96"/>
-      <c r="E105" s="61"/>
-      <c r="F105" s="61"/>
-      <c r="G105" s="67"/>
-      <c r="H105" s="100"/>
-      <c r="I105" s="67"/>
-      <c r="J105" s="67"/>
-      <c r="K105" s="67"/>
-      <c r="L105" s="67"/>
-      <c r="M105" s="67"/>
-      <c r="N105" s="67"/>
-      <c r="O105" s="67"/>
-      <c r="P105" s="67"/>
+      <c r="A105" s="63"/>
+      <c r="B105" s="63"/>
+      <c r="C105" s="63"/>
+      <c r="D105" s="73"/>
+      <c r="E105" s="70"/>
+      <c r="F105" s="70"/>
+      <c r="G105" s="63"/>
+      <c r="H105" s="99"/>
+      <c r="I105" s="63"/>
+      <c r="J105" s="63"/>
+      <c r="K105" s="63"/>
+      <c r="L105" s="63"/>
+      <c r="M105" s="63"/>
+      <c r="N105" s="63"/>
+      <c r="O105" s="63"/>
+      <c r="P105" s="63"/>
       <c r="Q105" s="12" t="s">
         <v>117</v>
       </c>
@@ -6931,22 +6991,22 @@
       </c>
     </row>
     <row r="106" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="68"/>
-      <c r="B106" s="68"/>
-      <c r="C106" s="68"/>
-      <c r="D106" s="95"/>
-      <c r="E106" s="62"/>
-      <c r="F106" s="62"/>
-      <c r="G106" s="68"/>
-      <c r="H106" s="101"/>
-      <c r="I106" s="68"/>
-      <c r="J106" s="68"/>
-      <c r="K106" s="68"/>
-      <c r="L106" s="68"/>
-      <c r="M106" s="68"/>
-      <c r="N106" s="68"/>
-      <c r="O106" s="68"/>
-      <c r="P106" s="68"/>
+      <c r="A106" s="64"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="74"/>
+      <c r="E106" s="69"/>
+      <c r="F106" s="69"/>
+      <c r="G106" s="64"/>
+      <c r="H106" s="100"/>
+      <c r="I106" s="64"/>
+      <c r="J106" s="64"/>
+      <c r="K106" s="64"/>
+      <c r="L106" s="64"/>
+      <c r="M106" s="64"/>
+      <c r="N106" s="64"/>
+      <c r="O106" s="64"/>
+      <c r="P106" s="64"/>
       <c r="Q106" s="28" t="s">
         <v>118</v>
       </c>
@@ -6968,6 +7028,373 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="391">
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="E48:E53"/>
+    <mergeCell ref="F48:F53"/>
+    <mergeCell ref="G48:G53"/>
+    <mergeCell ref="H48:H53"/>
+    <mergeCell ref="I48:I53"/>
+    <mergeCell ref="J48:J53"/>
+    <mergeCell ref="H14:H24"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="N100:N102"/>
+    <mergeCell ref="N104:N106"/>
+    <mergeCell ref="O100:O102"/>
+    <mergeCell ref="N69:N71"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="N74:N80"/>
+    <mergeCell ref="M54:M64"/>
+    <mergeCell ref="M65:M68"/>
+    <mergeCell ref="M69:M71"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="M74:M80"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="M83:M88"/>
+    <mergeCell ref="L104:L106"/>
+    <mergeCell ref="M89:M92"/>
+    <mergeCell ref="M93:M96"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="M100:M102"/>
+    <mergeCell ref="M104:M106"/>
+    <mergeCell ref="L48:L53"/>
+    <mergeCell ref="M48:M53"/>
+    <mergeCell ref="R14:R24"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="N54:N64"/>
+    <mergeCell ref="N65:N68"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="L89:L92"/>
+    <mergeCell ref="L93:L96"/>
+    <mergeCell ref="N89:N92"/>
+    <mergeCell ref="N93:N96"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="N81:N82"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="R48:R50"/>
+    <mergeCell ref="R51:R53"/>
+    <mergeCell ref="N48:N53"/>
+    <mergeCell ref="O48:O53"/>
+    <mergeCell ref="P48:P53"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="L83:L88"/>
+    <mergeCell ref="L100:L102"/>
+    <mergeCell ref="L74:L80"/>
+    <mergeCell ref="J54:J64"/>
+    <mergeCell ref="J65:J68"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="J74:J80"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="L37:L45"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="J83:J88"/>
+    <mergeCell ref="J89:J92"/>
+    <mergeCell ref="J93:J96"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J14:J24"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="J37:J45"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K81:K82"/>
+    <mergeCell ref="K48:K53"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="I37:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I54:I64"/>
+    <mergeCell ref="I65:I68"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="I74:I80"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="I83:I88"/>
+    <mergeCell ref="I89:I92"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B54:B64"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B37:B45"/>
+    <mergeCell ref="G54:G64"/>
+    <mergeCell ref="G65:G68"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="G74:G80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="G104:G106"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G27:G31"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="G37:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C54:C64"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="A54:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="P104:P106"/>
+    <mergeCell ref="P100:P102"/>
+    <mergeCell ref="K100:K102"/>
+    <mergeCell ref="K104:K106"/>
+    <mergeCell ref="G83:G88"/>
+    <mergeCell ref="G89:G92"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="G100:G102"/>
+    <mergeCell ref="I93:I96"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="I100:I102"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="J100:J102"/>
+    <mergeCell ref="J104:J106"/>
+    <mergeCell ref="O104:O106"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="N98:N99"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="R89:R90"/>
+    <mergeCell ref="R93:R95"/>
+    <mergeCell ref="O83:O88"/>
+    <mergeCell ref="N83:N88"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="O89:O92"/>
+    <mergeCell ref="O93:O96"/>
+    <mergeCell ref="O98:O99"/>
+    <mergeCell ref="K83:K88"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="R81:R82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="E104:E106"/>
+    <mergeCell ref="P83:P88"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="P98:P99"/>
+    <mergeCell ref="P93:P96"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="P89:P92"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="F104:F106"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="H89:H92"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="E93:E96"/>
+    <mergeCell ref="F93:F96"/>
+    <mergeCell ref="R83:R88"/>
+    <mergeCell ref="H83:H88"/>
+    <mergeCell ref="F83:F88"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="E74:E80"/>
+    <mergeCell ref="F74:F80"/>
+    <mergeCell ref="E89:E92"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="H93:H96"/>
+    <mergeCell ref="H74:H80"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D37:D45"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="E14:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="P37:P45"/>
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="P54:P64"/>
+    <mergeCell ref="P65:P68"/>
+    <mergeCell ref="P69:P71"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="H37:H45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="E54:E64"/>
+    <mergeCell ref="L54:L64"/>
+    <mergeCell ref="L65:L68"/>
+    <mergeCell ref="L69:L71"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="M37:M45"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="E37:E45"/>
+    <mergeCell ref="F37:F45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="P72:P73"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M8:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M27:M31"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="F27:F31"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="D74:D80"/>
+    <mergeCell ref="R98:R99"/>
+    <mergeCell ref="H54:H64"/>
+    <mergeCell ref="H65:H68"/>
+    <mergeCell ref="R27:R31"/>
+    <mergeCell ref="R37:R45"/>
+    <mergeCell ref="R65:R68"/>
+    <mergeCell ref="R69:R71"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="D14:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F14:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="R54:R64"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="F54:F64"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="D54:D64"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="R72:R73"/>
+    <mergeCell ref="P74:P80"/>
+    <mergeCell ref="R74:R80"/>
+    <mergeCell ref="P14:P24"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="P27:P31"/>
+    <mergeCell ref="O27:O31"/>
+    <mergeCell ref="O37:O45"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="O54:O64"/>
+    <mergeCell ref="O65:O68"/>
+    <mergeCell ref="O69:O71"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="O74:O80"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="O8:O11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O14:O24"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R12:R13"/>
     <mergeCell ref="P2:P4"/>
     <mergeCell ref="P8:P11"/>
     <mergeCell ref="K37:K45"/>
@@ -6992,410 +7419,43 @@
     <mergeCell ref="N8:N11"/>
     <mergeCell ref="N12:N13"/>
     <mergeCell ref="N14:N24"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="R72:R73"/>
-    <mergeCell ref="P74:P80"/>
-    <mergeCell ref="R74:R80"/>
-    <mergeCell ref="P14:P24"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="P27:P31"/>
-    <mergeCell ref="O27:O31"/>
-    <mergeCell ref="O37:O45"/>
-    <mergeCell ref="O46:O47"/>
-    <mergeCell ref="O54:O64"/>
-    <mergeCell ref="O65:O68"/>
-    <mergeCell ref="O69:O71"/>
-    <mergeCell ref="O72:O73"/>
-    <mergeCell ref="O74:O80"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="O8:O11"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O14:O24"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="D74:D80"/>
-    <mergeCell ref="R98:R99"/>
-    <mergeCell ref="H54:H64"/>
-    <mergeCell ref="H65:H68"/>
-    <mergeCell ref="R27:R31"/>
-    <mergeCell ref="R37:R45"/>
-    <mergeCell ref="R65:R68"/>
-    <mergeCell ref="R69:R71"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="D14:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F14:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="R46:R47"/>
-    <mergeCell ref="R54:R64"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="F54:F64"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="D54:D64"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="F69:F71"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="E37:E45"/>
-    <mergeCell ref="F37:F45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="P72:P73"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="M8:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="M27:M31"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="F27:F31"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="P37:P45"/>
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="P54:P64"/>
-    <mergeCell ref="P65:P68"/>
-    <mergeCell ref="P69:P71"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="H37:H45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="E54:E64"/>
-    <mergeCell ref="L54:L64"/>
-    <mergeCell ref="L65:L68"/>
-    <mergeCell ref="L69:L71"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="M37:M45"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D37:D45"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="E14:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="E74:E80"/>
-    <mergeCell ref="F74:F80"/>
-    <mergeCell ref="E89:E92"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="H93:H96"/>
-    <mergeCell ref="H74:H80"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="R81:R82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="E104:E106"/>
-    <mergeCell ref="P83:P88"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="P98:P99"/>
-    <mergeCell ref="P93:P96"/>
-    <mergeCell ref="D93:D96"/>
-    <mergeCell ref="P89:P92"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="F104:F106"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="H89:H92"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="E93:E96"/>
-    <mergeCell ref="F93:F96"/>
-    <mergeCell ref="R83:R88"/>
-    <mergeCell ref="H83:H88"/>
-    <mergeCell ref="F83:F88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="R89:R90"/>
-    <mergeCell ref="R93:R95"/>
-    <mergeCell ref="O83:O88"/>
-    <mergeCell ref="N83:N88"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="O89:O92"/>
-    <mergeCell ref="O93:O96"/>
-    <mergeCell ref="O98:O99"/>
-    <mergeCell ref="K83:K88"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="P104:P106"/>
-    <mergeCell ref="P100:P102"/>
-    <mergeCell ref="K100:K102"/>
-    <mergeCell ref="K104:K106"/>
-    <mergeCell ref="G83:G88"/>
-    <mergeCell ref="G89:G92"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="G100:G102"/>
-    <mergeCell ref="I93:I96"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="I100:I102"/>
-    <mergeCell ref="I104:I106"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="J100:J102"/>
-    <mergeCell ref="J104:J106"/>
-    <mergeCell ref="O104:O106"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="A54:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C37:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C54:C64"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G27:G31"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="G37:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G54:G64"/>
-    <mergeCell ref="G65:G68"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="G74:G80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="G104:G106"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B37:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B54:B64"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B74:B80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I24"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I27:I31"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="I37:I45"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="I54:I64"/>
-    <mergeCell ref="I65:I68"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="I74:I80"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="I83:I88"/>
-    <mergeCell ref="I89:I92"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="J83:J88"/>
-    <mergeCell ref="J89:J92"/>
-    <mergeCell ref="J93:J96"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J14:J24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J27:J31"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="J37:J45"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K81:K82"/>
-    <mergeCell ref="K48:K53"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L14:L24"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="L27:L31"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="L37:L45"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="L83:L88"/>
-    <mergeCell ref="L100:L102"/>
-    <mergeCell ref="L74:L80"/>
-    <mergeCell ref="J54:J64"/>
-    <mergeCell ref="J65:J68"/>
-    <mergeCell ref="J69:J71"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="J74:J80"/>
-    <mergeCell ref="R14:R24"/>
-    <mergeCell ref="P25:P26"/>
-    <mergeCell ref="N54:N64"/>
-    <mergeCell ref="N65:N68"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="L89:L92"/>
-    <mergeCell ref="L93:L96"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="N89:N92"/>
-    <mergeCell ref="N93:N96"/>
-    <mergeCell ref="N98:N99"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="N81:N82"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="H14:H24"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="N100:N102"/>
-    <mergeCell ref="N104:N106"/>
-    <mergeCell ref="O100:O102"/>
-    <mergeCell ref="N69:N71"/>
-    <mergeCell ref="N72:N73"/>
-    <mergeCell ref="N74:N80"/>
-    <mergeCell ref="M54:M64"/>
-    <mergeCell ref="M65:M68"/>
-    <mergeCell ref="M69:M71"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="M74:M80"/>
-    <mergeCell ref="M81:M82"/>
-    <mergeCell ref="M83:M88"/>
-    <mergeCell ref="L104:L106"/>
-    <mergeCell ref="M89:M92"/>
-    <mergeCell ref="M93:M96"/>
-    <mergeCell ref="M98:M99"/>
-    <mergeCell ref="M100:M102"/>
-    <mergeCell ref="M104:M106"/>
-    <mergeCell ref="R48:R50"/>
-    <mergeCell ref="R51:R53"/>
-    <mergeCell ref="L48:L53"/>
-    <mergeCell ref="M48:M53"/>
-    <mergeCell ref="N48:N53"/>
-    <mergeCell ref="O48:O53"/>
-    <mergeCell ref="P48:P53"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="E48:E53"/>
-    <mergeCell ref="F48:F53"/>
-    <mergeCell ref="G48:G53"/>
-    <mergeCell ref="H48:H53"/>
-    <mergeCell ref="I48:I53"/>
-    <mergeCell ref="J48:J53"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="N5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="O5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="P8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="P12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="N14" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="N25" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="O25" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="N27" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="O27" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="P32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="O32" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="N36" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="O36" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="N37" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="O37" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="N48" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="O48" r:id="rId18" display="https://github.com/tanfei2007/DeepM6A/tree/master/Data" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="O54" r:id="rId19" xr:uid="{B0EFD173-7767-4562-A2F2-CF9A4C08CC2F}"/>
-    <hyperlink ref="P54" r:id="rId20" xr:uid="{6C1F23CA-9A96-4A52-B4FA-35D6F3FA19F5}"/>
-    <hyperlink ref="P65" r:id="rId21" xr:uid="{3F94D8A6-408A-4FC5-9199-524747231AB0}"/>
-    <hyperlink ref="O65" r:id="rId22" xr:uid="{B3505438-5788-461F-AA71-B1AF0E96C165}"/>
-    <hyperlink ref="N65" r:id="rId23" xr:uid="{65C0DC72-23BA-487C-96E5-FAD6D6E269D8}"/>
-    <hyperlink ref="N69" r:id="rId24" xr:uid="{A188285E-4A7B-4C86-B3FB-4FF87FC35534}"/>
-    <hyperlink ref="O69" r:id="rId25" xr:uid="{9822E996-A697-4C4D-AAC6-FE3C74CEA98B}"/>
-    <hyperlink ref="P69" r:id="rId26" xr:uid="{8B65A868-E48B-470B-B103-BDA0BAE3E9FB}"/>
-    <hyperlink ref="P72" r:id="rId27" xr:uid="{D4B11EFE-8773-4675-921B-C9F740300103}"/>
-    <hyperlink ref="N74" r:id="rId28" xr:uid="{2065140C-3B95-41C6-BD9F-DE14E60144E2}"/>
-    <hyperlink ref="O74" r:id="rId29" xr:uid="{9C114FFA-4ED8-4FEC-A3F1-8FBADA60B0A6}"/>
-    <hyperlink ref="N83" r:id="rId30" xr:uid="{0B2498B2-8AEE-417A-9FCF-B3F5A988EEE7}"/>
-    <hyperlink ref="O83" r:id="rId31" xr:uid="{1201A0E7-48CA-4574-B37A-5711711933E9}"/>
-    <hyperlink ref="N89" r:id="rId32" xr:uid="{C464FC0B-CF55-4D6F-800C-2ED03C5C1CD3}"/>
-    <hyperlink ref="O93" r:id="rId33" xr:uid="{BAAFD5B7-3A3D-4ED9-80C5-CD4C79372712}"/>
-    <hyperlink ref="N100" r:id="rId34" xr:uid="{DD7598F1-D5B2-438A-8D96-C085976D14DB}"/>
+    <hyperlink ref="P2" r:id="rId1"/>
+    <hyperlink ref="N5" r:id="rId2"/>
+    <hyperlink ref="O5" r:id="rId3"/>
+    <hyperlink ref="P8" r:id="rId4"/>
+    <hyperlink ref="P12" r:id="rId5"/>
+    <hyperlink ref="N14" r:id="rId6"/>
+    <hyperlink ref="N25" r:id="rId7"/>
+    <hyperlink ref="O25" r:id="rId8"/>
+    <hyperlink ref="N27" r:id="rId9"/>
+    <hyperlink ref="O27" r:id="rId10"/>
+    <hyperlink ref="P32" r:id="rId11"/>
+    <hyperlink ref="O32" r:id="rId12"/>
+    <hyperlink ref="N36" r:id="rId13"/>
+    <hyperlink ref="O36" r:id="rId14"/>
+    <hyperlink ref="N37" r:id="rId15"/>
+    <hyperlink ref="O37" r:id="rId16"/>
+    <hyperlink ref="N48" r:id="rId17"/>
+    <hyperlink ref="O48" r:id="rId18" display="https://github.com/tanfei2007/DeepM6A/tree/master/Data"/>
+    <hyperlink ref="O54" r:id="rId19"/>
+    <hyperlink ref="P54" r:id="rId20"/>
+    <hyperlink ref="P65" r:id="rId21"/>
+    <hyperlink ref="O65" r:id="rId22"/>
+    <hyperlink ref="N65" r:id="rId23"/>
+    <hyperlink ref="N69" r:id="rId24"/>
+    <hyperlink ref="O69" r:id="rId25"/>
+    <hyperlink ref="P69" r:id="rId26"/>
+    <hyperlink ref="P72" r:id="rId27"/>
+    <hyperlink ref="N74" r:id="rId28"/>
+    <hyperlink ref="O74" r:id="rId29"/>
+    <hyperlink ref="N83" r:id="rId30"/>
+    <hyperlink ref="O83" r:id="rId31"/>
+    <hyperlink ref="N89" r:id="rId32"/>
+    <hyperlink ref="O93" r:id="rId33"/>
+    <hyperlink ref="N100" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId35"/>
@@ -7403,10 +7463,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D1E142-A527-49F7-AA6E-4D14B1A2A39D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="D12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
@@ -7508,7 +7568,7 @@
       <c r="D10" s="46">
         <v>44078</v>
       </c>
-      <c r="G10" s="113" t="s">
+      <c r="G10" s="60" t="s">
         <v>396</v>
       </c>
     </row>
@@ -7522,7 +7582,7 @@
       <c r="D11" s="46">
         <v>44230</v>
       </c>
-      <c r="G11" s="113" t="s">
+      <c r="G11" s="60" t="s">
         <v>398</v>
       </c>
     </row>
@@ -7553,7 +7613,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{29194A1E-2E3E-4B95-8359-FE6011959F5C}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -7562,11 +7622,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A04B0D-D5CD-4171-BA57-DD941DC1B04B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B8"/>
+      <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7654,7 +7714,7 @@
         <f>[1]paper!$F$5</f>
         <v>43749</v>
       </c>
-      <c r="F9" s="114" t="s">
+      <c r="F9" s="61" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7794,11 +7854,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F25774-9193-4370-8867-433F60D2E544}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7806,21 +7866,21 @@
     <col min="1" max="1" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>408</v>
       </c>
       <c r="B1" s="43"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>278</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
         <v>279</v>
       </c>
@@ -7828,15 +7888,15 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>258</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="47" t="s">
         <v>259</v>
       </c>
@@ -7844,7 +7904,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="47" t="s">
         <v>22</v>
       </c>
@@ -7852,24 +7912,46 @@
         <v>378</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
         <v>392</v>
       </c>
       <c r="B7" s="43">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>393</v>
       </c>
       <c r="B8" s="43">
-        <v>880</v>
-      </c>
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="46">
+        <v>44110</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>